--- a/src/VNEXT/Dora.School/wwwroot/template/teachingtaskdetail.xlsx
+++ b/src/VNEXT/Dora.School/wwwroot/template/teachingtaskdetail.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
   <si>
     <t>教室编号</t>
   </si>
@@ -24,9 +24,6 @@
   <si>
     <t>上课节次</t>
   </si>
-  <si>
-    <t>第一周</t>
-  </si>
 </sst>
 </file>
 
@@ -34,9 +31,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -200,103 +197,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,10 +523,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,7 +544,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,19 +577,19 @@
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -610,57 +607,60 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -982,13 +982,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
   </cols>
@@ -1008,22 +1008,89 @@
       <c r="A2" s="1">
         <v>201714110</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="1">
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="1">
+        <v>201714110</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1">
+        <v>201714110</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>201714110</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>201714110</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>201714110</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>201714110</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>201714110</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
